--- a/Track2_QML-20251121T152326Z-1-001/Track2_QML/submission_results.xlsx
+++ b/Track2_QML-20251121T152326Z-1-001/Track2_QML/submission_results.xlsx
@@ -1567,676 +1567,676 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02446590550243855</v>
+        <v>0.02337641268968582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03220226615667343</v>
+        <v>0.03270553797483444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03476648032665253</v>
+        <v>0.03533559292554855</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03659394010901451</v>
+        <v>0.03661026060581207</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03771637752652168</v>
+        <v>0.03675924986600876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03700494393706322</v>
+        <v>0.03616440296173096</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03634073585271835</v>
+        <v>0.03544274717569351</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03572008013725281</v>
+        <v>0.03529112040996552</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03541913256049156</v>
+        <v>0.03578970208764076</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03599735349416733</v>
+        <v>0.03501130640506744</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03362042084336281</v>
+        <v>0.03361741080880165</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03265539184212685</v>
+        <v>0.03270434215664864</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03307373449206352</v>
+        <v>0.03222296386957169</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03369275107979774</v>
+        <v>0.03293722867965698</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0513504296541214</v>
+        <v>0.05002701282501221</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0613592304289341</v>
+        <v>0.06235883384943008</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06415880471467972</v>
+        <v>0.0653659850358963</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0652918666601181</v>
+        <v>0.06519078463315964</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06634726375341415</v>
+        <v>0.06508246064186096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06194010004401207</v>
+        <v>0.06222373247146606</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06358665227890015</v>
+        <v>0.06439001858234406</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06228726729750633</v>
+        <v>0.06331680715084076</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06504254788160324</v>
+        <v>0.06230207905173302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06365975737571716</v>
+        <v>0.06229890882968903</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0604841522872448</v>
+        <v>0.05991534516215324</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05688059702515602</v>
+        <v>0.05656176805496216</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05775392055511475</v>
+        <v>0.0561150424182415</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.05801016837358475</v>
+        <v>0.05806947499513626</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.08135922998189926</v>
+        <v>0.08175930380821228</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.09447076916694641</v>
+        <v>0.09502609819173813</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0936230942606926</v>
+        <v>0.09341157972812653</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.09490647912025452</v>
+        <v>0.09529659152030945</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.09309656172990799</v>
+        <v>0.09522596001625061</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.09314408153295517</v>
+        <v>0.09446163475513458</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.09139829874038696</v>
+        <v>0.09075522422790527</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.09028298407793045</v>
+        <v>0.09145060926675797</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0911104753613472</v>
+        <v>0.09060510993003845</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.08570469170808792</v>
+        <v>0.08797924220561981</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.08355081826448441</v>
+        <v>0.08314885199069977</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.08263958990573883</v>
+        <v>0.08141854405403137</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.08482109010219574</v>
+        <v>0.08196664601564407</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.08574631065130234</v>
+        <v>0.08314149081707001</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1133794039487839</v>
+        <v>0.1138745322823524</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1182292625308037</v>
+        <v>0.1192670315504074</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.120164543390274</v>
+        <v>0.1202897280454636</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.119804784655571</v>
+        <v>0.1197323054075241</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1160682141780853</v>
+        <v>0.1162561476230621</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.1104567497968674</v>
+        <v>0.1131662279367447</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1120071262121201</v>
+        <v>0.1128651425242424</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1131977364420891</v>
+        <v>0.1140324398875237</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.111684575676918</v>
+        <v>0.1094240993261337</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.1034681126475334</v>
+        <v>0.1071212962269783</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.1030646115541458</v>
+        <v>0.1024716943502426</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.100296251475811</v>
+        <v>0.0994318351149559</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.09984519332647324</v>
+        <v>0.09993782639503479</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.1026483476161957</v>
+        <v>0.100947231054306</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.1394086331129074</v>
+        <v>0.1418200731277466</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.1406444311141968</v>
+        <v>0.1444191485643387</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.139424130320549</v>
+        <v>0.1399812400341034</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.136593222618103</v>
+        <v>0.1358417123556137</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.1377411186695099</v>
+        <v>0.1379302144050598</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.1318690031766891</v>
+        <v>0.1312229931354523</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.1299266368150711</v>
+        <v>0.1309317648410797</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1297627985477448</v>
+        <v>0.1276458352804184</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.1242129132151604</v>
+        <v>0.1260922253131866</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.1273796260356903</v>
+        <v>0.1263144165277481</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1193595677614212</v>
+        <v>0.1176134496927261</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.1182923018932343</v>
+        <v>0.11751689016819</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.1162240728735924</v>
+        <v>0.1168291494250298</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.1172615885734558</v>
+        <v>0.1152908280491829</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.1704986244440079</v>
+        <v>0.1742294132709503</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1675446331501007</v>
+        <v>0.1713801622390747</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.165558859705925</v>
+        <v>0.1673207581043243</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1636663377285004</v>
+        <v>0.1661052107810974</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.1659772545099258</v>
+        <v>0.1633849889039993</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.1608275473117828</v>
+        <v>0.1615606844425201</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.1602736264467239</v>
+        <v>0.1579262912273407</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.1536890417337418</v>
+        <v>0.1539513617753983</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.1546653658151627</v>
+        <v>0.1522878557443619</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.1468021720647812</v>
+        <v>0.1469840407371521</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.1459246128797531</v>
+        <v>0.1432522386312485</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.1380483210086823</v>
+        <v>0.1357809752225876</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.1377252787351608</v>
+        <v>0.1345296204090118</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.1412670016288757</v>
+        <v>0.1379257291555405</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.1968995183706284</v>
+        <v>0.1973432898521423</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.1986361145973206</v>
+        <v>0.1967921853065491</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.1896897703409195</v>
+        <v>0.1940735429525375</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.1909098774194717</v>
+        <v>0.1886898428201675</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.1842054426670074</v>
+        <v>0.1844676434993744</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.1771966964006424</v>
+        <v>0.1783115565776825</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.1812675893306732</v>
+        <v>0.1803132444620132</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.1752925664186478</v>
+        <v>0.1752722561359406</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.1704795062541962</v>
+        <v>0.1698808073997498</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.1736301481723785</v>
+        <v>0.1720326393842697</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.1592564880847931</v>
+        <v>0.1589461863040924</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.1591368913650513</v>
+        <v>0.1561567634344101</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.1576980650424957</v>
+        <v>0.157731682062149</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.1630618125200272</v>
+        <v>0.1608686298131943</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.225924164056778</v>
+        <v>0.2324467152357101</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.2190175652503967</v>
+        <v>0.2224305421113968</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.2199514657258987</v>
+        <v>0.2220531404018402</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.2198871523141861</v>
+        <v>0.2190671414136887</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2097122967243195</v>
+        <v>0.2074258178472519</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2063042670488358</v>
+        <v>0.2049925774335861</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.2054563909769058</v>
+        <v>0.205722376704216</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.2030076831579208</v>
+        <v>0.2040396183729172</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2038625478744507</v>
+        <v>0.200424388051033</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.1976976841688156</v>
+        <v>0.1966709047555923</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.1919172704219818</v>
+        <v>0.1890357583761215</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.188254177570343</v>
+        <v>0.1852454245090485</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.1889234632253647</v>
+        <v>0.1834685355424881</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.1903348118066788</v>
+        <v>0.1859565228223801</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.2479824125766754</v>
+        <v>0.2488103061914444</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.24931301176548</v>
+        <v>0.2455617785453796</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.2414660900831223</v>
+        <v>0.2382916063070297</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2358104586601257</v>
+        <v>0.2335393130779266</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2311111837625504</v>
+        <v>0.2282001674175262</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.2331200689077377</v>
+        <v>0.230814591050148</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.2236894220113754</v>
+        <v>0.22601018846035</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.2228816449642181</v>
+        <v>0.2204315811395645</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.2164144814014435</v>
+        <v>0.2185297459363937</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.2176479548215866</v>
+        <v>0.2124527841806412</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.214148998260498</v>
+        <v>0.2085326313972473</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.2073162645101547</v>
+        <v>0.2068887203931808</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.2142806500196457</v>
+        <v>0.2095881700515747</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.2159476429224014</v>
+        <v>0.2092665284872055</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.2672842144966125</v>
+        <v>0.2656246423721313</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.2597463726997375</v>
+        <v>0.2518580853939056</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.2555097937583923</v>
+        <v>0.2501233518123627</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.247756153345108</v>
+        <v>0.2474523335695267</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.2497688978910446</v>
+        <v>0.2480040341615677</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.2402854859828949</v>
+        <v>0.2406128346920013</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.2387625724077225</v>
+        <v>0.235930547118187</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.2348046451807022</v>
+        <v>0.2343514710664749</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.235216349363327</v>
+        <v>0.230554610490799</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.2335156798362732</v>
+        <v>0.2327151596546173</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.2219642102718353</v>
+        <v>0.2166566699743271</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.2256125211715698</v>
+        <v>0.2203387171030045</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.2274089902639389</v>
+        <v>0.2191149741411209</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.2303503006696701</v>
+        <v>0.2213852554559708</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.2801985144615173</v>
+        <v>0.2734052240848541</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.2741257548332214</v>
+        <v>0.2723654210567474</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.2700712382793427</v>
+        <v>0.2685231864452362</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.2613086402416229</v>
+        <v>0.2609234750270844</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.2658693790435791</v>
+        <v>0.2620095014572144</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.257414698600769</v>
+        <v>0.2508625686168671</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.2536861002445221</v>
+        <v>0.2509022057056427</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.2472709864377975</v>
+        <v>0.2443467080593109</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.2530241310596466</v>
+        <v>0.2483841627836227</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.2509879767894745</v>
+        <v>0.2467004209756851</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.2467504888772964</v>
+        <v>0.2415057718753815</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.2466651946306229</v>
+        <v>0.2439483106136322</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.2469286322593689</v>
+        <v>0.2414424866437912</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.2570045590400696</v>
+        <v>0.2535516023635864</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.2824226021766663</v>
+        <v>0.2788195312023163</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.2854378521442413</v>
+        <v>0.2791061103343964</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.2746827602386475</v>
+        <v>0.2723759114742279</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.2769235372543335</v>
+        <v>0.2733134925365448</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.2662496268749237</v>
+        <v>0.2617794275283813</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.2683542668819427</v>
+        <v>0.2633165121078491</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.2692804634571075</v>
+        <v>0.2615502178668976</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.2652232944965363</v>
+        <v>0.259336918592453</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.2611982226371765</v>
+        <v>0.2555543184280396</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.2582593858242035</v>
+        <v>0.2542493641376495</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.2625624239444733</v>
+        <v>0.2551186382770538</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.2638770937919617</v>
+        <v>0.2580552697181702</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.2719129025936127</v>
+        <v>0.2652246356010437</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.2830963730812073</v>
+        <v>0.2740899324417114</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.2871115803718567</v>
+        <v>0.2814533412456512</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.288730800151825</v>
+        <v>0.2829526960849762</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.2816018760204315</v>
+        <v>0.2742694318294525</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.2781699597835541</v>
+        <v>0.2735068202018738</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.2853596210479736</v>
+        <v>0.2781857848167419</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.2810010015964508</v>
+        <v>0.2755782902240753</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.2807000577449799</v>
+        <v>0.2774786949157715</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.2812286913394928</v>
+        <v>0.2727268934249878</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.2826398313045502</v>
+        <v>0.2756417989730835</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.2827245593070984</v>
+        <v>0.275812953710556</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.2803520560264587</v>
+        <v>0.2737893760204315</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.2905151546001434</v>
+        <v>0.283970057964325</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.2936646044254303</v>
+        <v>0.2867446541786194</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.3106950223445892</v>
+        <v>0.3019082248210907</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.3069644570350647</v>
+        <v>0.2956736981868744</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.3042021095752716</v>
+        <v>0.2972875833511353</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.3050558567047119</v>
+        <v>0.2976891696453094</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.3056116104125977</v>
+        <v>0.2988178431987762</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.3049452900886536</v>
+        <v>0.2974261045455933</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.30036661028862</v>
+        <v>0.2946484386920929</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.2990214228630066</v>
+        <v>0.2907808423042297</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.301691085100174</v>
+        <v>0.2888055443763733</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.3031765520572662</v>
+        <v>0.2875637114048004</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.3047272562980652</v>
+        <v>0.2932655513286591</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.3092005252838135</v>
+        <v>0.2978819012641907</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.3164537250995636</v>
+        <v>0.3066076040267944</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.3308135867118835</v>
+        <v>0.3203672468662262</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.3385691344738007</v>
+        <v>0.330004870891571</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.331943690776825</v>
+        <v>0.3256515562534332</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.3302988111972809</v>
+        <v>0.3200069069862366</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.3287807106971741</v>
+        <v>0.3186920881271362</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.3243135511875153</v>
+        <v>0.3179648518562317</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.329401820898056</v>
+        <v>0.3187595009803772</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.3236404359340668</v>
+        <v>0.3103224039077759</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.3269651234149933</v>
+        <v>0.3189708292484283</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.320992112159729</v>
+        <v>0.3147846758365631</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.3246388733386993</v>
+        <v>0.3108274638652802</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.3229801654815674</v>
+        <v>0.312511682510376</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.3400167524814606</v>
+        <v>0.3259744346141815</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.3475905060768127</v>
+        <v>0.3407337367534637</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.3609934747219086</v>
+        <v>0.3521914482116699</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.3544809222221375</v>
+        <v>0.3465591371059418</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.3464334905147552</v>
+        <v>0.3313896059989929</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.339451014995575</v>
+        <v>0.3278127908706665</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.3443426489830017</v>
+        <v>0.3266989290714264</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.3497587442398071</v>
+        <v>0.3349507451057434</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.3459872603416443</v>
+        <v>0.3355744183063507</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.3483040034770966</v>
+        <v>0.3368634879589081</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.3462440669536591</v>
+        <v>0.3302309811115265</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.3395080268383026</v>
+        <v>0.3280055224895477</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.3427816033363342</v>
+        <v>0.3275440037250519</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.3373700380325317</v>
+        <v>0.3282153010368347</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.3646458983421326</v>
+        <v>0.3497891128063202</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.3795326352119446</v>
+        <v>0.3654181659221649</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.3565980792045593</v>
+        <v>0.3460322916507721</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.3451291620731354</v>
+        <v>0.3379274308681488</v>
       </c>
     </row>
     <row r="3">
@@ -2246,676 +2246,676 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02586035430431366</v>
+        <v>0.02495798841118813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03440422937273979</v>
+        <v>0.03444113954901695</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03663111478090286</v>
+        <v>0.03686055541038513</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03845882415771484</v>
+        <v>0.03822914883494377</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03924152627587318</v>
+        <v>0.03817957639694214</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0380590483546257</v>
+        <v>0.0372699461877346</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0373447947204113</v>
+        <v>0.03659556061029434</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03689514473080635</v>
+        <v>0.03631015494465828</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0366453118622303</v>
+        <v>0.03679698705673218</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03675264120101929</v>
+        <v>0.03575009107589722</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03449287265539169</v>
+        <v>0.03432681038975716</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03339052945375443</v>
+        <v>0.0329957902431488</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03370083123445511</v>
+        <v>0.03267549723386765</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03429107367992401</v>
+        <v>0.03326313942670822</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05362360924482346</v>
+        <v>0.05131346732378006</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.06415620446205139</v>
+        <v>0.06448426842689514</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06653687357902527</v>
+        <v>0.06769939512014389</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06753349304199219</v>
+        <v>0.06746207177639008</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06840677559375763</v>
+        <v>0.06716208159923553</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06421384215354919</v>
+        <v>0.06398957222700119</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06544939428567886</v>
+        <v>0.06591515988111496</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06437951326370239</v>
+        <v>0.06475086510181427</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06626660376787186</v>
+        <v>0.06394035369157791</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.06482484936714172</v>
+        <v>0.06323869526386261</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06156325712800026</v>
+        <v>0.06079061329364777</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05809691548347473</v>
+        <v>0.05697179213166237</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.058636125177145</v>
+        <v>0.05679067969322205</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.05921247228980064</v>
+        <v>0.05847306177020073</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.08502073585987091</v>
+        <v>0.08507074415683746</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.09804694354534149</v>
+        <v>0.09815347939729691</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.09653434902429581</v>
+        <v>0.09771710634231567</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0982452854514122</v>
+        <v>0.09906435757875443</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.09633851796388626</v>
+        <v>0.09767333418130875</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0959596112370491</v>
+        <v>0.09698174148797989</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.09359125047922134</v>
+        <v>0.09281438589096069</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.09222283959388733</v>
+        <v>0.09284992516040802</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0928243100643158</v>
+        <v>0.09205517917871475</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.08822547644376755</v>
+        <v>0.08973163366317749</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.08488953113555908</v>
+        <v>0.08411630243062973</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.08341266959905624</v>
+        <v>0.08140312135219574</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.08591262251138687</v>
+        <v>0.08285155892372131</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.08643151819705963</v>
+        <v>0.08350137621164322</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.117226742208004</v>
+        <v>0.1177488937973976</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1224159449338913</v>
+        <v>0.125287339091301</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1234628036618233</v>
+        <v>0.1248660460114479</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1233264282345772</v>
+        <v>0.1241143718361855</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1199231371283531</v>
+        <v>0.120392344892025</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1141725927591324</v>
+        <v>0.1160539761185646</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1152437105774879</v>
+        <v>0.1157000884413719</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1150508299469948</v>
+        <v>0.115658201277256</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.1136980727314949</v>
+        <v>0.1123769357800484</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.1065561324357986</v>
+        <v>0.1085171774029732</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.104927584528923</v>
+        <v>0.1038055792450905</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.101782001554966</v>
+        <v>0.1001037061214447</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.1013583242893219</v>
+        <v>0.1001490205526352</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.1039886176586151</v>
+        <v>0.1011098101735115</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.1443197280168533</v>
+        <v>0.1473692208528519</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.1447624415159225</v>
+        <v>0.1493945270776749</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.1434153616428375</v>
+        <v>0.1444474458694458</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.1403215974569321</v>
+        <v>0.1410625874996185</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.1405271887779236</v>
+        <v>0.141524150967598</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.1342563182115555</v>
+        <v>0.1335153430700302</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.1324027478694916</v>
+        <v>0.1337320655584335</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.1314547061920166</v>
+        <v>0.1295584589242935</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.126782238483429</v>
+        <v>0.1273956745862961</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.1292961090803146</v>
+        <v>0.1281873881816864</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1203141286969185</v>
+        <v>0.1183794364333153</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.1194608807563782</v>
+        <v>0.1176928356289864</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.1177230775356293</v>
+        <v>0.1168420389294624</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.1180284917354584</v>
+        <v>0.1146275624632835</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.1775224506855011</v>
+        <v>0.181577056646347</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1739637106657028</v>
+        <v>0.1787165701389313</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.1710847467184067</v>
+        <v>0.1727768182754517</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.1687460839748383</v>
+        <v>0.1714645624160767</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.1694458425045013</v>
+        <v>0.1676312536001205</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1638855338096619</v>
+        <v>0.1635583341121674</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.1622097790241241</v>
+        <v>0.1598598957061768</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.1565090119838715</v>
+        <v>0.1562930792570114</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.156022384762764</v>
+        <v>0.1540345847606659</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1492276191711426</v>
+        <v>0.1487264931201935</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.1475465446710587</v>
+        <v>0.1449496895074844</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.1389834135770798</v>
+        <v>0.1353864073753357</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.1394668221473694</v>
+        <v>0.1354958117008209</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.1421534419059753</v>
+        <v>0.13814777135849</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.2031454890966415</v>
+        <v>0.2036050707101822</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.2031357884407043</v>
+        <v>0.2032625824213028</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.195500448346138</v>
+        <v>0.2003372311592102</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.1950397938489914</v>
+        <v>0.1945689171552658</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.188801646232605</v>
+        <v>0.1888425201177597</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.1811498701572418</v>
+        <v>0.1818098872900009</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.1841923296451569</v>
+        <v>0.1822346895933151</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.1767809838056564</v>
+        <v>0.1767182201147079</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.1739743798971176</v>
+        <v>0.172450989484787</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1756801456212997</v>
+        <v>0.1750978827476501</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.1609893590211868</v>
+        <v>0.1603791117668152</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.1603161096572876</v>
+        <v>0.155468225479126</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.1595330536365509</v>
+        <v>0.1565998196601868</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1645002216100693</v>
+        <v>0.1603897213935852</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.2331007272005081</v>
+        <v>0.2391245067119598</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.2244253754615784</v>
+        <v>0.22663314640522</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.2247863709926605</v>
+        <v>0.2240585088729858</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.2229032665491104</v>
+        <v>0.2222011685371399</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2128753811120987</v>
+        <v>0.2096658498048782</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2095044553279877</v>
+        <v>0.2070676237344742</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.2088889181613922</v>
+        <v>0.2068887501955032</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.2056199014186859</v>
+        <v>0.2058776766061783</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.2058741748332977</v>
+        <v>0.2014361321926117</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1999249160289764</v>
+        <v>0.1965070068836212</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.1935324817895889</v>
+        <v>0.1895041465759277</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.1892257928848267</v>
+        <v>0.1853720098733902</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.1893997341394424</v>
+        <v>0.1832402646541595</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.1914781928062439</v>
+        <v>0.1846161335706711</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.253029465675354</v>
+        <v>0.2514061331748962</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.2522785067558289</v>
+        <v>0.2486419528722763</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.2443079501390457</v>
+        <v>0.2409535497426987</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2405075281858444</v>
+        <v>0.2370462268590927</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2343759387731552</v>
+        <v>0.2307904660701752</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.2346759289503098</v>
+        <v>0.232820600271225</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.2272744923830032</v>
+        <v>0.226082444190979</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.2239883840084076</v>
+        <v>0.2206217497587204</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.2186520099639893</v>
+        <v>0.2180983424186707</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.2187355607748032</v>
+        <v>0.2127477824687958</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.2145721316337585</v>
+        <v>0.2083702981472015</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.2089591175317764</v>
+        <v>0.2065394073724747</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.2146226316690445</v>
+        <v>0.2081966251134872</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.2168866246938705</v>
+        <v>0.2078264504671097</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.2712336778640747</v>
+        <v>0.2683431804180145</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.2634416520595551</v>
+        <v>0.2555264234542847</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.257710874080658</v>
+        <v>0.2544263303279877</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.2511616349220276</v>
+        <v>0.2477675080299377</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.2516074180603027</v>
+        <v>0.2486739307641983</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.2432689815759659</v>
+        <v>0.2413424104452133</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.2417879998683929</v>
+        <v>0.2362399846315384</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.237687736749649</v>
+        <v>0.2348913252353668</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.2364580929279327</v>
+        <v>0.2307770103216171</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.2347259670495987</v>
+        <v>0.2317426204681396</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.2235752046108246</v>
+        <v>0.2160604745149612</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.2269109636545181</v>
+        <v>0.2187126576900482</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.2280560433864594</v>
+        <v>0.2182328253984451</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.2308032661676407</v>
+        <v>0.2196711450815201</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.2823816537857056</v>
+        <v>0.2750077843666077</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.2764378190040588</v>
+        <v>0.2718190550804138</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.2720723450183868</v>
+        <v>0.2679299712181091</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.2635832130908966</v>
+        <v>0.2597792148590088</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.2677192687988281</v>
+        <v>0.2619658708572388</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.2588916420936584</v>
+        <v>0.2507041394710541</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.2561955451965332</v>
+        <v>0.2506923377513885</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.2493079453706741</v>
+        <v>0.243356317281723</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.2538417279720306</v>
+        <v>0.2480742931365967</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.2524405717849731</v>
+        <v>0.2455652058124542</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.2480528652667999</v>
+        <v>0.2402435690164566</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.2478175908327103</v>
+        <v>0.2420878410339355</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.2474705427885056</v>
+        <v>0.239788606762886</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.2587015628814697</v>
+        <v>0.2511335909366608</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.2844616770744324</v>
+        <v>0.2783012390136719</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.287415087223053</v>
+        <v>0.2784603834152222</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.2762333452701569</v>
+        <v>0.2703520655632019</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.2781761586666107</v>
+        <v>0.2714937329292297</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.2674956917762756</v>
+        <v>0.2599393725395203</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.2693076133728027</v>
+        <v>0.2615645825862885</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.2701711356639862</v>
+        <v>0.2603966593742371</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.2660720348358154</v>
+        <v>0.2579663395881653</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.2617994844913483</v>
+        <v>0.253583550453186</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.2595532238483429</v>
+        <v>0.2527230381965637</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.2633095383644104</v>
+        <v>0.2531533241271973</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.2642726898193359</v>
+        <v>0.255459189414978</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.2732627987861633</v>
+        <v>0.2626933753490448</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.2840920090675354</v>
+        <v>0.2719600200653076</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.288751482963562</v>
+        <v>0.2796265482902527</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.2902068495750427</v>
+        <v>0.2805018424987793</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.2825183868408203</v>
+        <v>0.2722488641738892</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.2793332636356354</v>
+        <v>0.2708331644535065</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.2861697673797607</v>
+        <v>0.2767671346664429</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.2821110486984253</v>
+        <v>0.2730241119861603</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.2820271551609039</v>
+        <v>0.2747770845890045</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.2823264300823212</v>
+        <v>0.2703915536403656</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.2835273146629333</v>
+        <v>0.2729736268520355</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.2834141552448273</v>
+        <v>0.2732019126415253</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.2819325029850006</v>
+        <v>0.2707479596138</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.2917172610759735</v>
+        <v>0.2800966203212738</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.2952034771442413</v>
+        <v>0.2836569845676422</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.3124639689922333</v>
+        <v>0.2985739707946777</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.3081430196762085</v>
+        <v>0.2940375208854675</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.3060896992683411</v>
+        <v>0.2936816215515137</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.307176798582077</v>
+        <v>0.2951187193393707</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.3079515397548676</v>
+        <v>0.2961294054985046</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.3058238923549652</v>
+        <v>0.2951474189758301</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.3022756278514862</v>
+        <v>0.29210364818573</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.3007315397262573</v>
+        <v>0.2887474894523621</v>
       </c>
       <c r="GI3" t="n">
-        <v>0.3020867705345154</v>
+        <v>0.2845100462436676</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.3034577965736389</v>
+        <v>0.2854154706001282</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.3057405352592468</v>
+        <v>0.2898719608783722</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.3106864392757416</v>
+        <v>0.2957325577735901</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.3179345428943634</v>
+        <v>0.3026884794235229</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.3325076401233673</v>
+        <v>0.3166045844554901</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.3394850492477417</v>
+        <v>0.3246975839138031</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.3337053656578064</v>
+        <v>0.3217377364635468</v>
       </c>
       <c r="GQ3" t="n">
-        <v>0.3316918611526489</v>
+        <v>0.3160384595394135</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.3302156925201416</v>
+        <v>0.3148200809955597</v>
       </c>
       <c r="GS3" t="n">
-        <v>0.3267230987548828</v>
+        <v>0.314404308795929</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.3302281498908997</v>
+        <v>0.3150380253791809</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.3252189457416534</v>
+        <v>0.3075957596302032</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.3290748298168182</v>
+        <v>0.3145492374897003</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.3231150209903717</v>
+        <v>0.3099812567234039</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.3261837363243103</v>
+        <v>0.3065226376056671</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.3252793848514557</v>
+        <v>0.3067424893379211</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.3406338393688202</v>
+        <v>0.3217413723468781</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.3494437038898468</v>
+        <v>0.3355124592781067</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.363451361656189</v>
+        <v>0.3470155000686646</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.3567880988121033</v>
+        <v>0.3429360687732697</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.3484040498733521</v>
+        <v>0.325325608253479</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.3415733277797699</v>
+        <v>0.3207062482833862</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.3464730978012085</v>
+        <v>0.3208432495594025</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.3527251482009888</v>
+        <v>0.3293525278568268</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.3491042256355286</v>
+        <v>0.3304614424705505</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.3492219150066376</v>
+        <v>0.3279577195644379</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.3491347134113312</v>
+        <v>0.3267346918582916</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.3416758179664612</v>
+        <v>0.3216313421726227</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.3456305861473083</v>
+        <v>0.3205627799034119</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.341720849275589</v>
+        <v>0.322098433971405</v>
       </c>
       <c r="HN3" t="n">
-        <v>0.3666006028652191</v>
+        <v>0.3437016904354095</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.3816216588020325</v>
+        <v>0.3593049049377441</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.3590092360973358</v>
+        <v>0.34157794713974</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.3470495045185089</v>
+        <v>0.3348157405853271</v>
       </c>
     </row>
     <row r="4">
@@ -2925,676 +2925,676 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02713680267333984</v>
+        <v>0.02542167715728283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0361054316163063</v>
+        <v>0.03525296971201897</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03815305605530739</v>
+        <v>0.0374792255461216</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03984610363841057</v>
+        <v>0.03898362442851067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04041795432567596</v>
+        <v>0.03894594311714172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03910756483674049</v>
+        <v>0.03787065669894218</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03826356679201126</v>
+        <v>0.03714510053396225</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03788230940699577</v>
+        <v>0.0367402620613575</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03766744956374168</v>
+        <v>0.03730197250843048</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03740812838077545</v>
+        <v>0.03623398020863533</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03533685579895973</v>
+        <v>0.03479127213358879</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03408269956707954</v>
+        <v>0.03319705277681351</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03427431359887123</v>
+        <v>0.03301772102713585</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03491882234811783</v>
+        <v>0.03349034115672112</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05530305206775665</v>
+        <v>0.05128408595919609</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06656374037265778</v>
+        <v>0.06522278487682343</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06855776906013489</v>
+        <v>0.06842014938592911</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0690341591835022</v>
+        <v>0.0684930607676506</v>
       </c>
       <c r="T4" t="n">
-        <v>0.07006612420082092</v>
+        <v>0.06850919872522354</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06618472933769226</v>
+        <v>0.06494149565696716</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06713477522134781</v>
+        <v>0.06663279980421066</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06611025333404541</v>
+        <v>0.06551329046487808</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06717688590288162</v>
+        <v>0.06491031497716904</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06592052429914474</v>
+        <v>0.06381809711456299</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06233890354633331</v>
+        <v>0.0615830160677433</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05911068990826607</v>
+        <v>0.05729809030890465</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05955678969621658</v>
+        <v>0.05738069489598274</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06024033203721046</v>
+        <v>0.05882202833890915</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.08783252537250519</v>
+        <v>0.08627723157405853</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.100735142827034</v>
+        <v>0.09922114759683609</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.09911809861660004</v>
+        <v>0.09959792345762253</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.1003144234418869</v>
+        <v>0.1011949479579926</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.099046990275383</v>
+        <v>0.09900753200054169</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.09827869385480881</v>
+        <v>0.09855192899703979</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.09542913734912872</v>
+        <v>0.09426020830869675</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.09383334219455719</v>
+        <v>0.09344655275344849</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0943092405796051</v>
+        <v>0.09302692860364914</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.09022758901119232</v>
+        <v>0.09040217101573944</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.08617503941059113</v>
+        <v>0.08451659232378006</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.08440731465816498</v>
+        <v>0.08180510252714157</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.08683792501688004</v>
+        <v>0.08346459269523621</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.08724121004343033</v>
+        <v>0.08392058312892914</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.1198534369468689</v>
+        <v>0.1189441308379173</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.1255019456148148</v>
+        <v>0.1279094368219376</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.1256084740161896</v>
+        <v>0.1270935386419296</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1256706863641739</v>
+        <v>0.1267811059951782</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1227311939001083</v>
+        <v>0.1226050183176994</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.1169512718915939</v>
+        <v>0.1175272166728973</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1176074668765068</v>
+        <v>0.1177794560790062</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1169971600174904</v>
+        <v>0.1165568083524704</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.1153784543275833</v>
+        <v>0.1142015978693962</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1089937686920166</v>
+        <v>0.1097018867731094</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.1061447262763977</v>
+        <v>0.1046245247125626</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.1033191978931427</v>
+        <v>0.1006720587611198</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.1026518493890762</v>
+        <v>0.1002452000975609</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.105635441839695</v>
+        <v>0.1014058589935303</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.1480221599340439</v>
+        <v>0.1498315930366516</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.1480337381362915</v>
+        <v>0.151708722114563</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.1467622667551041</v>
+        <v>0.1475614607334137</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.1430038809776306</v>
+        <v>0.1441272348165512</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.1426133960485458</v>
+        <v>0.143490195274353</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1360967457294464</v>
+        <v>0.1354542374610901</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.134544849395752</v>
+        <v>0.1355114430189133</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1327786445617676</v>
+        <v>0.1307386010885239</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.1289122551679611</v>
+        <v>0.1286346316337585</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.1307247430086136</v>
+        <v>0.1297851204872131</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1214427947998047</v>
+        <v>0.1193469613790512</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.1206668764352798</v>
+        <v>0.1179618239402771</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.1192658618092537</v>
+        <v>0.1169565469026566</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.1192195117473602</v>
+        <v>0.1145990192890167</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.1825878918170929</v>
+        <v>0.1852309852838516</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1782382130622864</v>
+        <v>0.1828772574663162</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.1746795177459717</v>
+        <v>0.1761706471443176</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.1722528785467148</v>
+        <v>0.1752423197031021</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.1718747019767761</v>
+        <v>0.1705036908388138</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.1665772497653961</v>
+        <v>0.165011540055275</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.1635898649692535</v>
+        <v>0.1616106480360031</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.1587621122598648</v>
+        <v>0.1576326638460159</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.157396137714386</v>
+        <v>0.1555378139019012</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.1513065546751022</v>
+        <v>0.1502096652984619</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.1484802216291428</v>
+        <v>0.146025687456131</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.1403942406177521</v>
+        <v>0.1360472589731216</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.1409692913293839</v>
+        <v>0.1361637115478516</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.1434503942728043</v>
+        <v>0.1384065449237823</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.2070117294788361</v>
+        <v>0.2076589167118073</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.2059110403060913</v>
+        <v>0.2071965336799622</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.2000936418771744</v>
+        <v>0.2039954513311386</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.1977305263280869</v>
+        <v>0.1984047740697861</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.1916620582342148</v>
+        <v>0.1915395110845566</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.1840355396270752</v>
+        <v>0.1839592754840851</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.1860607117414474</v>
+        <v>0.183582678437233</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.1787262558937073</v>
+        <v>0.1777582913637161</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.176686629652977</v>
+        <v>0.1745309978723526</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.1770450323820114</v>
+        <v>0.1765813529491425</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.1627008020877838</v>
+        <v>0.1610995084047318</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1614980548620224</v>
+        <v>0.1556352227926254</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.1609681397676468</v>
+        <v>0.1561076790094376</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1662473678588867</v>
+        <v>0.1601910591125488</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.2379836589097977</v>
+        <v>0.2429665327072144</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.2280725985765457</v>
+        <v>0.2294042110443115</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.2278948724269867</v>
+        <v>0.2261197417974472</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.2260840684175491</v>
+        <v>0.2241887003183365</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.2162884473800659</v>
+        <v>0.2121880054473877</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.2121511697769165</v>
+        <v>0.2088714241981506</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.2114705890417099</v>
+        <v>0.2084366828203201</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.2078856080770493</v>
+        <v>0.2069225013256073</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.2078464478254318</v>
+        <v>0.2023851573467255</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.2018381357192993</v>
+        <v>0.1966432482004166</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.195207342505455</v>
+        <v>0.1896864771842957</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.190454289317131</v>
+        <v>0.1857298016548157</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.1903560906648636</v>
+        <v>0.1832631379365921</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.1928317695856094</v>
+        <v>0.1841473430395126</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.2566776275634766</v>
+        <v>0.2546511292457581</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.2548495829105377</v>
+        <v>0.2507451474666595</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.247080385684967</v>
+        <v>0.243072897195816</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.2434416115283966</v>
+        <v>0.2395986914634705</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.2373232394456863</v>
+        <v>0.2330222874879837</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2366327494382858</v>
+        <v>0.2340714782476425</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.2300314456224442</v>
+        <v>0.2272206097841263</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.2255410552024841</v>
+        <v>0.221048966050148</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.2214948385953903</v>
+        <v>0.2176784574985504</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2201009392738342</v>
+        <v>0.2128555476665497</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.2154053896665573</v>
+        <v>0.2081737667322159</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.2106785476207733</v>
+        <v>0.206689178943634</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.2155330181121826</v>
+        <v>0.2076123505830765</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2179368287324905</v>
+        <v>0.2070795744657516</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.2736234366893768</v>
+        <v>0.2706635892391205</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.2659038603305817</v>
+        <v>0.2581325769424438</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.2609486877918243</v>
+        <v>0.2574192583560944</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2541360259056091</v>
+        <v>0.2495566159486771</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.2535708248615265</v>
+        <v>0.2493974268436432</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.245507225394249</v>
+        <v>0.2415287345647812</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.2441133558750153</v>
+        <v>0.2372720241546631</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.2401842176914215</v>
+        <v>0.235281765460968</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.2385524660348892</v>
+        <v>0.231876939535141</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.2366402745246887</v>
+        <v>0.2315048277378082</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.2248561829328537</v>
+        <v>0.2159980982542038</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.2282908409833908</v>
+        <v>0.2183235287666321</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.2288954257965088</v>
+        <v>0.2180061042308807</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.2316435277462006</v>
+        <v>0.2191440165042877</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.2845790684223175</v>
+        <v>0.2768332958221436</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.2789004445075989</v>
+        <v>0.271971732378006</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.2741625905036926</v>
+        <v>0.267652690410614</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.2660079002380371</v>
+        <v>0.2598015964031219</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.2699955105781555</v>
+        <v>0.2621156573295593</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.2600619494915009</v>
+        <v>0.2509398460388184</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.258566826581955</v>
+        <v>0.251014918088913</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.2513554990291595</v>
+        <v>0.242519736289978</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.2552620470523834</v>
+        <v>0.247468575835228</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.254004955291748</v>
+        <v>0.2451800405979156</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.2496582716703415</v>
+        <v>0.2398938536643982</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.2494507282972336</v>
+        <v>0.2408668547868729</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.2488376200199127</v>
+        <v>0.238967701792717</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.2605710923671722</v>
+        <v>0.2496566474437714</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.2865934371948242</v>
+        <v>0.278060257434845</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.2889425456523895</v>
+        <v>0.2781366109848022</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.2774579524993896</v>
+        <v>0.2694613933563232</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.2798043489456177</v>
+        <v>0.2705101668834686</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2692055106163025</v>
+        <v>0.2590246200561523</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.2707077264785767</v>
+        <v>0.2607344686985016</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.2713068425655365</v>
+        <v>0.2600188851356506</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.2674664855003357</v>
+        <v>0.2570987343788147</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.2631350457668304</v>
+        <v>0.2524458765983582</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.261238694190979</v>
+        <v>0.2519353628158569</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.2644411027431488</v>
+        <v>0.252185732126236</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.265369713306427</v>
+        <v>0.2535761892795563</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.2744917273521423</v>
+        <v>0.2612370550632477</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.2853874564170837</v>
+        <v>0.2703969478607178</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.2907804250717163</v>
+        <v>0.2786359786987305</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.2920286357402802</v>
+        <v>0.2793501913547516</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.2840574085712433</v>
+        <v>0.2713003754615784</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.2810454070568085</v>
+        <v>0.2691621482372284</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.2877297699451447</v>
+        <v>0.2757649123668671</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.2839963734149933</v>
+        <v>0.2718542814254761</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.2838291227817535</v>
+        <v>0.2730850875377655</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.2835265100002289</v>
+        <v>0.2690481245517731</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.2849244773387909</v>
+        <v>0.2713444828987122</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.2846740186214447</v>
+        <v>0.2716980278491974</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.2833293974399567</v>
+        <v>0.2688905894756317</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.2932884395122528</v>
+        <v>0.2776057422161102</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.2970103621482849</v>
+        <v>0.2815204262733459</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.3140544295310974</v>
+        <v>0.2968564629554749</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.3092609643936157</v>
+        <v>0.2932256758213043</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.3081943988800049</v>
+        <v>0.2928523123264313</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.3096173703670502</v>
+        <v>0.2940227687358856</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.3102535009384155</v>
+        <v>0.2947340309619904</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.3077649176120758</v>
+        <v>0.293401688337326</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.3047806918621063</v>
+        <v>0.291003555059433</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3030103445053101</v>
+        <v>0.287558376789093</v>
       </c>
       <c r="GI4" t="n">
-        <v>0.3035678267478943</v>
+        <v>0.2829968929290771</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.3051266968250275</v>
+        <v>0.2849469780921936</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.3074159622192383</v>
+        <v>0.2884041666984558</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.3126114308834076</v>
+        <v>0.2939152419567108</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.3198058307170868</v>
+        <v>0.2999432981014252</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.3349239230155945</v>
+        <v>0.3147845268249512</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.3417361676692963</v>
+        <v>0.3219839930534363</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.3361428678035736</v>
+        <v>0.3194091618061066</v>
       </c>
       <c r="GQ4" t="n">
-        <v>0.3335648775100708</v>
+        <v>0.3134605884552002</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.3317383229732513</v>
+        <v>0.3134293556213379</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.3294084072113037</v>
+        <v>0.3120085299015045</v>
       </c>
       <c r="GT4" t="n">
-        <v>0.3321560025215149</v>
+        <v>0.3128828108310699</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.3270100355148315</v>
+        <v>0.3056830167770386</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.331235408782959</v>
+        <v>0.3117077052593231</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.3257190585136414</v>
+        <v>0.3070222139358521</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.3283632099628448</v>
+        <v>0.3046994507312775</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.3274465203285217</v>
+        <v>0.3039684295654297</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.3423199057579041</v>
+        <v>0.3195118606090546</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.3516084253787994</v>
+        <v>0.3327261805534363</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.366327315568924</v>
+        <v>0.3435773849487305</v>
       </c>
       <c r="HC4" t="n">
-        <v>0.3590968549251556</v>
+        <v>0.340252548456192</v>
       </c>
       <c r="HD4" t="n">
-        <v>0.3505788743495941</v>
+        <v>0.3219089508056641</v>
       </c>
       <c r="HE4" t="n">
-        <v>0.3441248536109924</v>
+        <v>0.3161929547786713</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.3483109474182129</v>
+        <v>0.3173991739749908</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.3551015257835388</v>
+        <v>0.3260976374149323</v>
       </c>
       <c r="HH4" t="n">
-        <v>0.3520321249961853</v>
+        <v>0.326693058013916</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.3516000807285309</v>
+        <v>0.3225762248039246</v>
       </c>
       <c r="HJ4" t="n">
-        <v>0.3533433079719543</v>
+        <v>0.3250626921653748</v>
       </c>
       <c r="HK4" t="n">
-        <v>0.3451454639434814</v>
+        <v>0.3180775344371796</v>
       </c>
       <c r="HL4" t="n">
-        <v>0.3492524325847626</v>
+        <v>0.3171790242195129</v>
       </c>
       <c r="HM4" t="n">
-        <v>0.3450438678264618</v>
+        <v>0.3185223042964935</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.3699386715888977</v>
+        <v>0.3400206863880157</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.385206937789917</v>
+        <v>0.3549894094467163</v>
       </c>
       <c r="HP4" t="n">
-        <v>0.3618562817573547</v>
+        <v>0.3384876847267151</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.3493052423000336</v>
+        <v>0.3320538401603699</v>
       </c>
     </row>
     <row r="5">
@@ -3604,676 +3604,676 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02799804881215096</v>
+        <v>0.02533027715981007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03717947378754616</v>
+        <v>0.03543246164917946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03920908644795418</v>
+        <v>0.03755970671772957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04076052829623222</v>
+        <v>0.03914646804332733</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04122499749064445</v>
+        <v>0.03920958563685417</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03988729044795036</v>
+        <v>0.03814784437417984</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03895562142133713</v>
+        <v>0.0373808927834034</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03856990858912468</v>
+        <v>0.03698344528675079</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03839841112494469</v>
+        <v>0.03755674138665199</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03789917379617691</v>
+        <v>0.03653831407427788</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0359489917755127</v>
+        <v>0.03508363291621208</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03461890667676926</v>
+        <v>0.03334388136863708</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03474262729287148</v>
+        <v>0.03324469923973083</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03536984324455261</v>
+        <v>0.03363467752933502</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05632205307483673</v>
+        <v>0.05079809576272964</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06815386563539505</v>
+        <v>0.06520972400903702</v>
       </c>
       <c r="R5" t="n">
-        <v>0.06999000906944275</v>
+        <v>0.06850682944059372</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07011266797780991</v>
+        <v>0.06887724995613098</v>
       </c>
       <c r="T5" t="n">
-        <v>0.07124946266412735</v>
+        <v>0.06914153695106506</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06752112507820129</v>
+        <v>0.06538964807987213</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06835696846246719</v>
+        <v>0.06695485860109329</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06732866913080215</v>
+        <v>0.06595157086849213</v>
       </c>
       <c r="X5" t="n">
-        <v>0.06788437813520432</v>
+        <v>0.06552702188491821</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06677642464637756</v>
+        <v>0.06429316103458405</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06291624158620834</v>
+        <v>0.06215493381023407</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05990374088287354</v>
+        <v>0.05759825184941292</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06021075695753098</v>
+        <v>0.05787454172968864</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.06095073372125626</v>
+        <v>0.05906378477811813</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.08972105383872986</v>
+        <v>0.08624836057424545</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1025727540254593</v>
+        <v>0.09931932389736176</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1009914055466652</v>
+        <v>0.1003020033240318</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.101747140288353</v>
+        <v>0.1022413969039917</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1008961424231529</v>
+        <v>0.09985703229904175</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.09993138909339905</v>
+        <v>0.0995902419090271</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.09680525213479996</v>
+        <v>0.0951545238494873</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.09506392478942871</v>
+        <v>0.09381771832704544</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.09539426118135452</v>
+        <v>0.09373462200164795</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.091620072722435</v>
+        <v>0.0908273309469223</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.08709137141704559</v>
+        <v>0.08481530100107193</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.08517403155565262</v>
+        <v>0.08228638768196106</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.08757316321134567</v>
+        <v>0.083950474858284</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.08786709606647491</v>
+        <v>0.08436151593923569</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1215949133038521</v>
+        <v>0.1187622249126434</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.127579003572464</v>
+        <v>0.1289446651935577</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1270807683467865</v>
+        <v>0.1281718015670776</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.1273931413888931</v>
+        <v>0.1283563077449799</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1246691718697548</v>
+        <v>0.1238301694393158</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1189017444849014</v>
+        <v>0.1185445189476013</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1192670837044716</v>
+        <v>0.1191287040710449</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.1185055077075958</v>
+        <v>0.1173526644706726</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.1166677922010422</v>
+        <v>0.1154933124780655</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.1106698140501976</v>
+        <v>0.1106633692979813</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.1070948541164398</v>
+        <v>0.1053378358483315</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.1044750511646271</v>
+        <v>0.101242907345295</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.1035883873701096</v>
+        <v>0.1005582883954048</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.1067980751395226</v>
+        <v>0.1019179001450539</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.1504559516906738</v>
+        <v>0.1506107598543167</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.1503795385360718</v>
+        <v>0.1527982652187347</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.1490871012210846</v>
+        <v>0.1495249569416046</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.1449421495199203</v>
+        <v>0.1462241858243942</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.1443448811769485</v>
+        <v>0.1447441279888153</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.1375952363014221</v>
+        <v>0.1369408369064331</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.136050671339035</v>
+        <v>0.1366819143295288</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.1338207125663757</v>
+        <v>0.1316227912902832</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.1303991377353668</v>
+        <v>0.1298087388277054</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.1317494958639145</v>
+        <v>0.1310307085514069</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.1224515065550804</v>
+        <v>0.1202431097626686</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.1215987876057625</v>
+        <v>0.1183834969997406</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.1204095259308815</v>
+        <v>0.1172930896282196</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.1202453970909119</v>
+        <v>0.1149289086461067</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.1860160827636719</v>
+        <v>0.1870646625757217</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1813178807497025</v>
+        <v>0.1853794008493423</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.1773122102022171</v>
+        <v>0.1783385425806046</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.1746551096439362</v>
+        <v>0.1779881417751312</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1736093461513519</v>
+        <v>0.1725576221942902</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.1685893386602402</v>
+        <v>0.1663461774587631</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.1648901700973511</v>
+        <v>0.1630631685256958</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.1604570895433426</v>
+        <v>0.1588422656059265</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.1586193293333054</v>
+        <v>0.1568118631839752</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.1528669744729996</v>
+        <v>0.1515543162822723</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.1492731869220734</v>
+        <v>0.1470040678977966</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.1415204405784607</v>
+        <v>0.1368253082036972</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.1421231776475906</v>
+        <v>0.1368164420127869</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.1444957852363586</v>
+        <v>0.1388791650533676</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.2097859680652618</v>
+        <v>0.2104073315858841</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.2080601155757904</v>
+        <v>0.2100855112075806</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.2034419327974319</v>
+        <v>0.2064066976308823</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.1996644139289856</v>
+        <v>0.2012366652488708</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.193753570318222</v>
+        <v>0.1935624629259109</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.1862754821777344</v>
+        <v>0.1855669021606445</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.1874811202287674</v>
+        <v>0.1848507672548294</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.1803178191184998</v>
+        <v>0.1789068281650543</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.1784875839948654</v>
+        <v>0.1761076301336288</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.1781836897134781</v>
+        <v>0.1777429580688477</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.1640722304582596</v>
+        <v>0.1618519425392151</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.1624607443809509</v>
+        <v>0.1560919135808945</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.1619834452867508</v>
+        <v>0.1560739874839783</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.1675410717725754</v>
+        <v>0.1603237390518188</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.2414940744638443</v>
+        <v>0.2455896139144897</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.2307178229093552</v>
+        <v>0.231679305434227</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.2301376760005951</v>
+        <v>0.2282358258962631</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.2284868061542511</v>
+        <v>0.2256955057382584</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.2186588793992996</v>
+        <v>0.2143488079309464</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.2142034471035004</v>
+        <v>0.2106469720602036</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.2134162485599518</v>
+        <v>0.2101768106222153</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.209584504365921</v>
+        <v>0.2081852555274963</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.2093771249055862</v>
+        <v>0.2034925669431686</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.2032456398010254</v>
+        <v>0.1972126811742783</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.1963857114315033</v>
+        <v>0.1899397224187851</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.1915748566389084</v>
+        <v>0.1863445788621902</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.1912494748830795</v>
+        <v>0.1835045218467712</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.1938028782606125</v>
+        <v>0.1841640919446945</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.2596647143363953</v>
+        <v>0.2574435770511627</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.2568657398223877</v>
+        <v>0.2523349821567535</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.2493045777082443</v>
+        <v>0.245184138417244</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.2456711083650589</v>
+        <v>0.2418554276227951</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.2395471185445786</v>
+        <v>0.2350312620401382</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.2383392751216888</v>
+        <v>0.2355405390262604</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.2320505231618881</v>
+        <v>0.2286249399185181</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.226802721619606</v>
+        <v>0.2218477725982666</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.2235890924930573</v>
+        <v>0.2178374826908112</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.2213370800018311</v>
+        <v>0.2131582498550415</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.2161163687705994</v>
+        <v>0.2082957625389099</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.2120205610990524</v>
+        <v>0.2069631963968277</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.2162498533725739</v>
+        <v>0.2074146419763565</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.2187564671039581</v>
+        <v>0.2068494260311127</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.2756408452987671</v>
+        <v>0.2728990316390991</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.2676960527896881</v>
+        <v>0.2604546844959259</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.2634879946708679</v>
+        <v>0.2599878311157227</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.2562570571899414</v>
+        <v>0.2513895332813263</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.2551797330379486</v>
+        <v>0.2503554821014404</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.2472899705171585</v>
+        <v>0.2420575022697449</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.2457513362169266</v>
+        <v>0.2384424358606339</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.2420703619718552</v>
+        <v>0.2356637567281723</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.2402675002813339</v>
+        <v>0.2329758405685425</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.2380696982145309</v>
+        <v>0.2317012846469879</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.2258864641189575</v>
+        <v>0.2162671238183975</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.2292569428682327</v>
+        <v>0.2183492481708527</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.2296408712863922</v>
+        <v>0.2180013954639435</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.232246607542038</v>
+        <v>0.2190552055835724</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.286432683467865</v>
+        <v>0.2787715196609497</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.2807934582233429</v>
+        <v>0.2726112008094788</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.2758307754993439</v>
+        <v>0.2677866816520691</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.2678302228450775</v>
+        <v>0.2602347731590271</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.2716769576072693</v>
+        <v>0.2625089287757874</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.2609352767467499</v>
+        <v>0.2514204680919647</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.260295957326889</v>
+        <v>0.2514631748199463</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.2529109120368958</v>
+        <v>0.2421494275331497</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.2564297318458557</v>
+        <v>0.2470891028642654</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.2551603019237518</v>
+        <v>0.2451282292604446</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.25088831782341</v>
+        <v>0.2398057132959366</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.2506726980209351</v>
+        <v>0.2401477545499802</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.2498947829008102</v>
+        <v>0.2384533137083054</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.2618587017059326</v>
+        <v>0.2487573325634003</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.2880709171295166</v>
+        <v>0.2780176997184753</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.2899569571018219</v>
+        <v>0.2780129611492157</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.278354287147522</v>
+        <v>0.269092857837677</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.2809557914733887</v>
+        <v>0.2699601054191589</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.2704573273658752</v>
+        <v>0.2584782540798187</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.2717110514640808</v>
+        <v>0.2602670192718506</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.2721457481384277</v>
+        <v>0.2597709596157074</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.2684928774833679</v>
+        <v>0.256486564874649</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.2641869485378265</v>
+        <v>0.2518430352210999</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.2623988687992096</v>
+        <v>0.251371294260025</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.2653180658817291</v>
+        <v>0.2515971958637238</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.2661682069301605</v>
+        <v>0.2523482739925385</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.275348573923111</v>
+        <v>0.26020747423172</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.2862649857997894</v>
+        <v>0.2693769633769989</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.2922455370426178</v>
+        <v>0.2780005633831024</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.2931888401508331</v>
+        <v>0.2786636054515839</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.2851701080799103</v>
+        <v>0.270783007144928</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.2823063135147095</v>
+        <v>0.2681212425231934</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.2888969779014587</v>
+        <v>0.2749584019184113</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.2853133976459503</v>
+        <v>0.2711661756038666</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.2852213680744171</v>
+        <v>0.2720648348331451</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.2843937575817108</v>
+        <v>0.2683386206626892</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.2860052585601807</v>
+        <v>0.2702426314353943</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.2857018411159515</v>
+        <v>0.2708805501461029</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.2842271327972412</v>
+        <v>0.2678362131118774</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.2943261861801147</v>
+        <v>0.2761438190937042</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.2983146607875824</v>
+        <v>0.2801101207733154</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.3150891661643982</v>
+        <v>0.2957756519317627</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.3102054595947266</v>
+        <v>0.292913556098938</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.3098850548267365</v>
+        <v>0.2927568256855011</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.3113498985767365</v>
+        <v>0.2935812473297119</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.3119036257266998</v>
+        <v>0.2941330969333649</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.3092308640480042</v>
+        <v>0.2922646701335907</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.3065610229969025</v>
+        <v>0.2903976142406464</v>
       </c>
       <c r="GH5" t="n">
-        <v>0.3046695590019226</v>
+        <v>0.2867799699306488</v>
       </c>
       <c r="GI5" t="n">
-        <v>0.3047048449516296</v>
+        <v>0.2825338244438171</v>
       </c>
       <c r="GJ5" t="n">
-        <v>0.3063648045063019</v>
+        <v>0.2849763035774231</v>
       </c>
       <c r="GK5" t="n">
-        <v>0.3087367415428162</v>
+        <v>0.2876277267932892</v>
       </c>
       <c r="GL5" t="n">
-        <v>0.3139772415161133</v>
+        <v>0.2927675247192383</v>
       </c>
       <c r="GM5" t="n">
-        <v>0.3210726082324982</v>
+        <v>0.2981609702110291</v>
       </c>
       <c r="GN5" t="n">
-        <v>0.3366370499134064</v>
+        <v>0.3135426640510559</v>
       </c>
       <c r="GO5" t="n">
-        <v>0.3435759544372559</v>
+        <v>0.3204317390918732</v>
       </c>
       <c r="GP5" t="n">
-        <v>0.3378126919269562</v>
+        <v>0.3179852068424225</v>
       </c>
       <c r="GQ5" t="n">
-        <v>0.3348924219608307</v>
+        <v>0.3119669556617737</v>
       </c>
       <c r="GR5" t="n">
-        <v>0.3329775333404541</v>
+        <v>0.3128100335597992</v>
       </c>
       <c r="GS5" t="n">
-        <v>0.3311646580696106</v>
+        <v>0.3105976581573486</v>
       </c>
       <c r="GT5" t="n">
-        <v>0.333558589220047</v>
+        <v>0.3117016851902008</v>
       </c>
       <c r="GU5" t="n">
-        <v>0.3282112777233124</v>
+        <v>0.3045372366905212</v>
       </c>
       <c r="GV5" t="n">
-        <v>0.3327307999134064</v>
+        <v>0.3100248873233795</v>
       </c>
       <c r="GW5" t="n">
-        <v>0.3275448679924011</v>
+        <v>0.3052028119564056</v>
       </c>
       <c r="GX5" t="n">
-        <v>0.3299314379692078</v>
+        <v>0.3036973476409912</v>
       </c>
       <c r="GY5" t="n">
-        <v>0.3290142416954041</v>
+        <v>0.3026103675365448</v>
       </c>
       <c r="GZ5" t="n">
-        <v>0.3437261581420898</v>
+        <v>0.3178153336048126</v>
       </c>
       <c r="HA5" t="n">
-        <v>0.3531414568424225</v>
+        <v>0.3310864269733429</v>
       </c>
       <c r="HB5" t="n">
-        <v>0.368295282125473</v>
+        <v>0.3412834107875824</v>
       </c>
       <c r="HC5" t="n">
-        <v>0.3607262074947357</v>
+        <v>0.3384052217006683</v>
       </c>
       <c r="HD5" t="n">
-        <v>0.3522395193576813</v>
+        <v>0.3193665742874146</v>
       </c>
       <c r="HE5" t="n">
-        <v>0.3459194302558899</v>
+        <v>0.3131658732891083</v>
       </c>
       <c r="HF5" t="n">
-        <v>0.3495828211307526</v>
+        <v>0.3153481483459473</v>
       </c>
       <c r="HG5" t="n">
-        <v>0.3566449582576752</v>
+        <v>0.3238044083118439</v>
       </c>
       <c r="HH5" t="n">
-        <v>0.354091614484787</v>
+        <v>0.3239967823028564</v>
       </c>
       <c r="HI5" t="n">
-        <v>0.3534743189811707</v>
+        <v>0.3193714916706085</v>
       </c>
       <c r="HJ5" t="n">
-        <v>0.3562166392803192</v>
+        <v>0.3237293362617493</v>
       </c>
       <c r="HK5" t="n">
-        <v>0.3476105034351349</v>
+        <v>0.3158595561981201</v>
       </c>
       <c r="HL5" t="n">
-        <v>0.3516406714916229</v>
+        <v>0.3153635859489441</v>
       </c>
       <c r="HM5" t="n">
-        <v>0.3473345339298248</v>
+        <v>0.3163998425006866</v>
       </c>
       <c r="HN5" t="n">
-        <v>0.3725015819072723</v>
+        <v>0.3375380039215088</v>
       </c>
       <c r="HO5" t="n">
-        <v>0.3878475427627563</v>
+        <v>0.3518871665000916</v>
       </c>
       <c r="HP5" t="n">
-        <v>0.3637940883636475</v>
+        <v>0.3361151516437531</v>
       </c>
       <c r="HQ5" t="n">
-        <v>0.3508618474006653</v>
+        <v>0.3298618197441101</v>
       </c>
     </row>
     <row r="6">
@@ -4283,676 +4283,676 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02850612998008728</v>
+        <v>0.02508611604571342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03782026097178459</v>
+        <v>0.03531819954514503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03989137709140778</v>
+        <v>0.0374244712293148</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0413302481174469</v>
+        <v>0.03904852643609047</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04173856601119041</v>
+        <v>0.03922636434435844</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04039266705513</v>
+        <v>0.03824365139007568</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03941168636083603</v>
+        <v>0.03747090324759483</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03900206461548805</v>
+        <v>0.03713452070951462</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03886664286255836</v>
+        <v>0.03768676519393921</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03821205720305443</v>
+        <v>0.03672079741954803</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03633842244744301</v>
+        <v>0.03526066988706589</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03496723994612694</v>
+        <v>0.03344389051198959</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03505196422338486</v>
+        <v>0.03338174149394035</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03562888875603676</v>
+        <v>0.03371772915124893</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0568818524479866</v>
+        <v>0.05019400268793106</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06914083659648895</v>
+        <v>0.06490906327962875</v>
       </c>
       <c r="R6" t="n">
-        <v>0.07090800255537033</v>
+        <v>0.06834376603364944</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07085463404655457</v>
+        <v>0.06895904242992401</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07203985005617142</v>
+        <v>0.06937805563211441</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06837209314107895</v>
+        <v>0.06555492430925369</v>
       </c>
       <c r="V6" t="n">
-        <v>0.06913408637046814</v>
+        <v>0.06708268821239471</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06809559464454651</v>
+        <v>0.06619266420602798</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06834881007671356</v>
+        <v>0.06591134518384933</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06732192635536194</v>
+        <v>0.06466887146234512</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.06329237669706345</v>
+        <v>0.06254769116640091</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.06041168421506882</v>
+        <v>0.05782845988869667</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06059043109416962</v>
+        <v>0.05823531746864319</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.06135933473706245</v>
+        <v>0.0592452846467495</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.09091902524232864</v>
+        <v>0.08577161282300949</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1037798821926117</v>
+        <v>0.09900647401809692</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1022334471344948</v>
+        <v>0.1005222722887993</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1027234643697739</v>
+        <v>0.1027410477399826</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1020765751600266</v>
+        <v>0.100409097969532</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.1010111570358276</v>
+        <v>0.100249782204628</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.09772530198097229</v>
+        <v>0.09569761157035828</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0958852544426918</v>
+        <v>0.09406563639640808</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.09609030187129974</v>
+        <v>0.09426084160804749</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.09248732030391693</v>
+        <v>0.09114845097064972</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.08764811605215073</v>
+        <v>0.08506330847740173</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.08561941981315613</v>
+        <v>0.08269798010587692</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.08802786469459534</v>
+        <v>0.08431961387395859</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.08821342885494232</v>
+        <v>0.08474175631999969</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.1227293387055397</v>
+        <v>0.1181091368198395</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.1289722919464111</v>
+        <v>0.1293070018291473</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.1280954033136368</v>
+        <v>0.1287487596273422</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.128570631146431</v>
+        <v>0.1293131560087204</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.1259328126907349</v>
+        <v>0.1245506107807159</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.1201726794242859</v>
+        <v>0.1192933619022369</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.1203184872865677</v>
+        <v>0.1200101599097252</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.1194446086883545</v>
+        <v>0.1179919242858887</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.1175160184502602</v>
+        <v>0.1164176315069199</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.1117411702871323</v>
+        <v>0.1113991588354111</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.1077152937650681</v>
+        <v>0.105922669172287</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.1051749512553215</v>
+        <v>0.1017408668994904</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.1041513606905937</v>
+        <v>0.1009631603956223</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.1074418127536774</v>
+        <v>0.1024079993367195</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.1520611494779587</v>
+        <v>0.1506809741258621</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.1519758999347687</v>
+        <v>0.1533418446779251</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.150586873292923</v>
+        <v>0.1507272124290466</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.1462670862674713</v>
+        <v>0.1476997584104538</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.1455642580986023</v>
+        <v>0.1456401795148849</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.1386312544345856</v>
+        <v>0.1379743814468384</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.136977031826973</v>
+        <v>0.1374773979187012</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.1345214992761612</v>
+        <v>0.1322635561227798</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.1313076019287109</v>
+        <v>0.130775511264801</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.1323920339345932</v>
+        <v>0.1319784075021744</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.1231257170438766</v>
+        <v>0.1209205090999603</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.1221637949347496</v>
+        <v>0.1187708228826523</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.1210823208093643</v>
+        <v>0.1176391765475273</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.1208961606025696</v>
+        <v>0.1152681410312653</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.1882446706295013</v>
+        <v>0.1879576295614243</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.1834354549646378</v>
+        <v>0.1869989782571793</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.1790735423564911</v>
+        <v>0.1797816753387451</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.1762311160564423</v>
+        <v>0.1800029724836349</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.1747186481952667</v>
+        <v>0.174006313085556</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.1698931753635406</v>
+        <v>0.1674589663743973</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.1658476144075394</v>
+        <v>0.1641932278871536</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.1615804880857468</v>
+        <v>0.1599506735801697</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.1594531685113907</v>
+        <v>0.1577666401863098</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.153843879699707</v>
+        <v>0.152613565325737</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.1497954726219177</v>
+        <v>0.1478292495012283</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.1422036439180374</v>
+        <v>0.1374427825212479</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.142801433801651</v>
+        <v>0.1373454481363297</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.1451274901628494</v>
+        <v>0.1393561512231827</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.2116878479719162</v>
+        <v>0.2122068405151367</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.2096038162708282</v>
+        <v>0.2122200578451157</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.2056382596492767</v>
+        <v>0.2081002444028854</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.2009324878454208</v>
+        <v>0.2033260017633438</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.1951478123664856</v>
+        <v>0.1951295733451843</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.1877831667661667</v>
+        <v>0.1867618709802628</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.1884075254201889</v>
+        <v>0.1859470009803772</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.1813486367464066</v>
+        <v>0.1799398362636566</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.1794979721307755</v>
+        <v>0.1772928982973099</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.1789646297693253</v>
+        <v>0.1787282824516296</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.1649222522974014</v>
+        <v>0.1625403761863708</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.1630632728338242</v>
+        <v>0.1565415114164352</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.1625417619943619</v>
+        <v>0.1561699509620667</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.168267697095871</v>
+        <v>0.1605592221021652</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.2437983006238937</v>
+        <v>0.2475359439849854</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.2324387580156326</v>
+        <v>0.2335959374904633</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.2316354364156723</v>
+        <v>0.2299930155277252</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.2299919873476028</v>
+        <v>0.2268871665000916</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.2200677543878555</v>
+        <v>0.2160317152738571</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.215524435043335</v>
+        <v>0.2121614962816238</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.2146127969026566</v>
+        <v>0.2116644382476807</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.2106625735759735</v>
+        <v>0.209388479590416</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.2103165090084076</v>
+        <v>0.204493910074234</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.2040515393018723</v>
+        <v>0.1978637427091599</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1970087289810181</v>
+        <v>0.1902047246694565</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.1922962814569473</v>
+        <v>0.1869517266750336</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.1917610466480255</v>
+        <v>0.1837700009346008</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.1942677050828934</v>
+        <v>0.1843137443065643</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.2616622149944305</v>
+        <v>0.2595567107200623</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.2581554055213928</v>
+        <v>0.2536223828792572</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.2507219314575195</v>
+        <v>0.2469892054796219</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.2471400797367096</v>
+        <v>0.2437560260295868</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.240880012512207</v>
+        <v>0.2365905046463013</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.2394214272499084</v>
+        <v>0.236915335059166</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.2332571297883987</v>
+        <v>0.2298079133033752</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.22752745449543</v>
+        <v>0.2226597219705582</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.2247927188873291</v>
+        <v>0.2182650417089462</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.2220879346132278</v>
+        <v>0.2134861648082733</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.2164736688137054</v>
+        <v>0.208516851067543</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.2128066867589951</v>
+        <v>0.2072074413299561</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.2165968865156174</v>
+        <v>0.2073568999767303</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.2191497087478638</v>
+        <v>0.2068224847316742</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.2770646810531616</v>
+        <v>0.2747542858123779</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.2687788307666779</v>
+        <v>0.2623549699783325</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.2650695443153381</v>
+        <v>0.2620447278022766</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.2574846148490906</v>
+        <v>0.2528511881828308</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.2561876773834229</v>
+        <v>0.2512110769748688</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.2484284490346909</v>
+        <v>0.2426624894142151</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.2466999143362045</v>
+        <v>0.2393976151943207</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.2432052791118622</v>
+        <v>0.2359516024589539</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.2413187921047211</v>
+        <v>0.233789786696434</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.2388613075017929</v>
+        <v>0.231995165348053</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.2264821976423264</v>
+        <v>0.2165108770132065</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.2297352105379105</v>
+        <v>0.2183713018894196</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.230009600520134</v>
+        <v>0.2179713398218155</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.2324459850788116</v>
+        <v>0.2190367579460144</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.2875686883926392</v>
+        <v>0.2803808450698853</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.2818835377693176</v>
+        <v>0.2733119130134583</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.2768125236034393</v>
+        <v>0.2680169939994812</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.2689041197299957</v>
+        <v>0.2606477439403534</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.2726270854473114</v>
+        <v>0.262883335351944</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.2614079117774963</v>
+        <v>0.2518380880355835</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.2612901329994202</v>
+        <v>0.251810222864151</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.2537972331047058</v>
+        <v>0.241972416639328</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.257099986076355</v>
+        <v>0.2468670159578323</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.2557460069656372</v>
+        <v>0.2451559007167816</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.2515256404876709</v>
+        <v>0.2397293299436569</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.2513079047203064</v>
+        <v>0.2396689206361771</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.2504346072673798</v>
+        <v>0.2380471676588058</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.2624706923961639</v>
+        <v>0.2481212615966797</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.2888230383396149</v>
+        <v>0.2780462205410004</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.290422797203064</v>
+        <v>0.2779455184936523</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.2788141369819641</v>
+        <v>0.2689093947410583</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.2815076410770416</v>
+        <v>0.2696119248867035</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.2711099684238434</v>
+        <v>0.258057028055191</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.2721900045871735</v>
+        <v>0.2599062025547028</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.2725398242473602</v>
+        <v>0.2595012485980988</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.2689959704875946</v>
+        <v>0.2559964060783386</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.2647099494934082</v>
+        <v>0.2514786422252655</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.2629446983337402</v>
+        <v>0.2509045004844666</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.2656967341899872</v>
+        <v>0.2511496245861053</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.2664965093135834</v>
+        <v>0.2515401840209961</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.2757068574428558</v>
+        <v>0.2593858540058136</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.2865637540817261</v>
+        <v>0.2686182260513306</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.2930164337158203</v>
+        <v>0.277497410774231</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.2936858832836151</v>
+        <v>0.2781160771846771</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.2856850028038025</v>
+        <v>0.2703743577003479</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.2829077839851379</v>
+        <v>0.2674162685871124</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.2894431352615356</v>
+        <v>0.2742863595485687</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.2859150469303131</v>
+        <v>0.2706515192985535</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.2859377264976501</v>
+        <v>0.271371454000473</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.2847272753715515</v>
+        <v>0.2678839266300201</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.2865038216114044</v>
+        <v>0.2694088518619537</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.2861858606338501</v>
+        <v>0.2703537940979004</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.2845583558082581</v>
+        <v>0.2671524286270142</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.2946860492229462</v>
+        <v>0.275190681219101</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.2988963425159454</v>
+        <v>0.2791025340557098</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.3154565095901489</v>
+        <v>0.2948837876319885</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.310656875371933</v>
+        <v>0.2926995754241943</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.3108177185058594</v>
+        <v>0.2927163243293762</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.3121733069419861</v>
+        <v>0.2933144867420197</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.3126936256885529</v>
+        <v>0.2938059568405151</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.3099117875099182</v>
+        <v>0.291471540927887</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.3074589371681213</v>
+        <v>0.2899238765239716</v>
       </c>
       <c r="GH6" t="n">
-        <v>0.3054389953613281</v>
+        <v>0.2862235605716705</v>
       </c>
       <c r="GI6" t="n">
-        <v>0.3051179945468903</v>
+        <v>0.2823376655578613</v>
       </c>
       <c r="GJ6" t="n">
-        <v>0.3068252205848694</v>
+        <v>0.2850112915039062</v>
       </c>
       <c r="GK6" t="n">
-        <v>0.3093088269233704</v>
+        <v>0.2870883941650391</v>
       </c>
       <c r="GL6" t="n">
-        <v>0.3145431876182556</v>
+        <v>0.2920130491256714</v>
       </c>
       <c r="GM6" t="n">
-        <v>0.3215221762657166</v>
+        <v>0.2969159781932831</v>
       </c>
       <c r="GN6" t="n">
-        <v>0.337354987859726</v>
+        <v>0.312500536441803</v>
       </c>
       <c r="GO6" t="n">
-        <v>0.3444856405258179</v>
+        <v>0.3193526864051819</v>
       </c>
       <c r="GP6" t="n">
-        <v>0.3385007083415985</v>
+        <v>0.3170203864574432</v>
       </c>
       <c r="GQ6" t="n">
-        <v>0.3354099988937378</v>
+        <v>0.3109988272190094</v>
       </c>
       <c r="GR6" t="n">
-        <v>0.3335526287555695</v>
+        <v>0.3123569488525391</v>
       </c>
       <c r="GS6" t="n">
-        <v>0.3319348990917206</v>
+        <v>0.3096688985824585</v>
       </c>
       <c r="GT6" t="n">
-        <v>0.3340936005115509</v>
+        <v>0.3109733462333679</v>
       </c>
       <c r="GU6" t="n">
-        <v>0.3286277055740356</v>
+        <v>0.3037173449993134</v>
       </c>
       <c r="GV6" t="n">
-        <v>0.3333494067192078</v>
+        <v>0.3089326024055481</v>
       </c>
       <c r="GW6" t="n">
-        <v>0.3283627033233643</v>
+        <v>0.303987979888916</v>
       </c>
       <c r="GX6" t="n">
-        <v>0.3305829763412476</v>
+        <v>0.3028833270072937</v>
       </c>
       <c r="GY6" t="n">
-        <v>0.329675704240799</v>
+        <v>0.3017513751983643</v>
       </c>
       <c r="GZ6" t="n">
-        <v>0.3443072438240051</v>
+        <v>0.3164094686508179</v>
       </c>
       <c r="HA6" t="n">
-        <v>0.3537785708904266</v>
+        <v>0.3299250602722168</v>
       </c>
       <c r="HB6" t="n">
-        <v>0.3691099286079407</v>
+        <v>0.3396147191524506</v>
       </c>
       <c r="HC6" t="n">
-        <v>0.3614259958267212</v>
+        <v>0.3370513916015625</v>
       </c>
       <c r="HD6" t="n">
-        <v>0.3529025316238403</v>
+        <v>0.3173325955867767</v>
       </c>
       <c r="HE6" t="n">
-        <v>0.3466188609600067</v>
+        <v>0.3109654188156128</v>
       </c>
       <c r="HF6" t="n">
-        <v>0.3499956429004669</v>
+        <v>0.3138950169086456</v>
       </c>
       <c r="HG6" t="n">
-        <v>0.3571491837501526</v>
+        <v>0.3220198154449463</v>
       </c>
       <c r="HH6" t="n">
-        <v>0.3549958467483521</v>
+        <v>0.3219909965991974</v>
       </c>
       <c r="HI6" t="n">
-        <v>0.3542643785476685</v>
+        <v>0.3171983361244202</v>
       </c>
       <c r="HJ6" t="n">
-        <v>0.357483983039856</v>
+        <v>0.3223910927772522</v>
       </c>
       <c r="HK6" t="n">
-        <v>0.3487208485603333</v>
+        <v>0.314196914434433</v>
       </c>
       <c r="HL6" t="n">
-        <v>0.3526326715946198</v>
+        <v>0.3141235113143921</v>
       </c>
       <c r="HM6" t="n">
-        <v>0.3484363853931427</v>
+        <v>0.3148858249187469</v>
       </c>
       <c r="HN6" t="n">
-        <v>0.3737419247627258</v>
+        <v>0.3357159793376923</v>
       </c>
       <c r="HO6" t="n">
-        <v>0.3890122771263123</v>
+        <v>0.3495698869228363</v>
       </c>
       <c r="HP6" t="n">
-        <v>0.3646269142627716</v>
+        <v>0.3342418968677521</v>
       </c>
       <c r="HQ6" t="n">
-        <v>0.3514997065067291</v>
+        <v>0.3281882703304291</v>
       </c>
     </row>
     <row r="7">
@@ -4962,676 +4962,676 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02880657650530338</v>
+        <v>0.02485350705683231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0382196381688118</v>
+        <v>0.03512449935078621</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04033265635371208</v>
+        <v>0.03726324439048767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04169265553355217</v>
+        <v>0.03888886421918869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04206338152289391</v>
+        <v>0.03917081654071808</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04071301221847534</v>
+        <v>0.03827765583992004</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03970064967870712</v>
+        <v>0.03752004355192184</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03926786035299301</v>
+        <v>0.03725139796733856</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03915745764970779</v>
+        <v>0.03777648881077766</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03839906677603722</v>
+        <v>0.03684454411268234</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03658152744174004</v>
+        <v>0.03539270535111427</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03517485409975052</v>
+        <v>0.03352523595094681</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0352366641163826</v>
+        <v>0.03347565233707428</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03576269373297691</v>
+        <v>0.03377856314182281</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05719555169343948</v>
+        <v>0.04960950091481209</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06978343427181244</v>
+        <v>0.06456340849399567</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07149406522512436</v>
+        <v>0.06814255565404892</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07136081904172897</v>
+        <v>0.06895393133163452</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07256066054105759</v>
+        <v>0.06948021799325943</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06892553716897964</v>
+        <v>0.06561601161956787</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0696231946349144</v>
+        <v>0.06716379523277283</v>
       </c>
       <c r="W7" t="n">
-        <v>0.06857454776763916</v>
+        <v>0.06634857505559921</v>
       </c>
       <c r="X7" t="n">
-        <v>0.06863110512495041</v>
+        <v>0.06618302315473557</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.06764250993728638</v>
+        <v>0.06498856842517853</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.06353596597909927</v>
+        <v>0.06285427510738373</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.06070378050208092</v>
+        <v>0.0580124743282795</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.06079252436757088</v>
+        <v>0.05851665139198303</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.06156860291957855</v>
+        <v>0.05941164866089821</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.09169801324605942</v>
+        <v>0.08524970710277557</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.104596383869648</v>
+        <v>0.09861617535352707</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.103073924779892</v>
+        <v>0.1006072014570236</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1034026220440865</v>
+        <v>0.1030437499284744</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.102843388915062</v>
+        <v>0.1008320227265358</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1017144024372101</v>
+        <v>0.1007280796766281</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.09832379221916199</v>
+        <v>0.09609787166118622</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.09639930725097656</v>
+        <v>0.09428329765796661</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.09652023762464523</v>
+        <v>0.09470614045858383</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.09301359206438065</v>
+        <v>0.09145046025514603</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0879674032330513</v>
+        <v>0.08530420809984207</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.08582870662212372</v>
+        <v>0.08304060995578766</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.08827503770589828</v>
+        <v>0.08463635295629501</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.08836117386817932</v>
+        <v>0.08507303893566132</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.1234996020793915</v>
+        <v>0.1174149140715599</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.1299564689397812</v>
+        <v>0.1294957101345062</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1288245171308517</v>
+        <v>0.1291735023260117</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.1293771266937256</v>
+        <v>0.1300028115510941</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.1267555356025696</v>
+        <v>0.1250905841588974</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1209968626499176</v>
+        <v>0.1199313774704933</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1209821105003357</v>
+        <v>0.1206826344132423</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.1199780851602554</v>
+        <v>0.1185117065906525</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.1180538609623909</v>
+        <v>0.1171586364507675</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1124181821942329</v>
+        <v>0.1120023876428604</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1080864518880844</v>
+        <v>0.1064236760139465</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1055601611733437</v>
+        <v>0.1021896302700043</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.1044585108757019</v>
+        <v>0.1013877913355827</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.1077539250254631</v>
+        <v>0.1028231084346771</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.1531784683465958</v>
+        <v>0.1505886912345886</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1530864387750626</v>
+        <v>0.1537341624498367</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.1515674889087677</v>
+        <v>0.1515948176383972</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.1471740007400513</v>
+        <v>0.1488611549139023</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.1463655233383179</v>
+        <v>0.1463769227266312</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.1393073052167892</v>
+        <v>0.1387387663125992</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1375446766614914</v>
+        <v>0.1381242126226425</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.1349726319313049</v>
+        <v>0.1327816247940063</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1318527907133102</v>
+        <v>0.1315842121839523</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.132771372795105</v>
+        <v>0.1327570080757141</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.1235237345099449</v>
+        <v>0.1214547976851463</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.1224675700068474</v>
+        <v>0.1191293373703957</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.1214369162917137</v>
+        <v>0.1179474964737892</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.121244989335537</v>
+        <v>0.1155650690197945</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.1897515058517456</v>
+        <v>0.1885067522525787</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1848978251218796</v>
+        <v>0.1883021891117096</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.1802193373441696</v>
+        <v>0.1809027940034866</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.177292987704277</v>
+        <v>0.1816220879554749</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.1753963381052017</v>
+        <v>0.1751525402069092</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.1707148402929306</v>
+        <v>0.168392077088356</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.1664745211601257</v>
+        <v>0.1651436537504196</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.1622866690158844</v>
+        <v>0.1609989553689957</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.1599437147378922</v>
+        <v>0.1585173904895782</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.154416486620903</v>
+        <v>0.1534665077924728</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.1500919759273529</v>
+        <v>0.1485418081283569</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.1425672918558121</v>
+        <v>0.1379346251487732</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.1431353688240051</v>
+        <v>0.1378052830696106</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.1454403549432755</v>
+        <v>0.1397970616817474</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.213001623749733</v>
+        <v>0.2135398387908936</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.2106648236513138</v>
+        <v>0.2140084803104401</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.2070582509040833</v>
+        <v>0.2094409912824631</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.2017560601234436</v>
+        <v>0.2049848139286041</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.1960418224334717</v>
+        <v>0.1964700371026993</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.1887387484312057</v>
+        <v>0.1877317726612091</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.1889821141958237</v>
+        <v>0.1869159191846848</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.1819726824760437</v>
+        <v>0.1808767318725586</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.1800399720668793</v>
+        <v>0.1782939732074738</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.1794581115245819</v>
+        <v>0.1796369552612305</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.1653899103403091</v>
+        <v>0.1631424576044083</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.1633703112602234</v>
+        <v>0.1569471955299377</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.162775456905365</v>
+        <v>0.1562798172235489</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.1686004549264908</v>
+        <v>0.1608393788337708</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.2452766597270966</v>
+        <v>0.2491606473922729</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.2335488647222519</v>
+        <v>0.235277995467186</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.2326052635908127</v>
+        <v>0.2314572483301163</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.2308811694383621</v>
+        <v>0.2279454320669174</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.2208594679832458</v>
+        <v>0.217444121837616</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.2162991464138031</v>
+        <v>0.2134543210268021</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.2152944654226303</v>
+        <v>0.2129052877426147</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.211301326751709</v>
+        <v>0.2104647904634476</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.210816815495491</v>
+        <v>0.2053787410259247</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.2044545263051987</v>
+        <v>0.1985154747962952</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.1972673684358597</v>
+        <v>0.1904904544353485</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.1926854252815247</v>
+        <v>0.1874868273735046</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.1919458657503128</v>
+        <v>0.1840493977069855</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.1943847835063934</v>
+        <v>0.1845021396875381</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.2628805339336395</v>
+        <v>0.2612528502941132</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.2589291334152222</v>
+        <v>0.2547764778137207</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.2515220046043396</v>
+        <v>0.248522937297821</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.2480357885360718</v>
+        <v>0.2454365938901901</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.2415887266397476</v>
+        <v>0.237847313284874</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.2400211989879608</v>
+        <v>0.2381248772144318</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.2339014559984207</v>
+        <v>0.2307441681623459</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.2278515100479126</v>
+        <v>0.223395437002182</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.2254045754671097</v>
+        <v>0.2187778353691101</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.2224473655223846</v>
+        <v>0.2138212472200394</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.2165580987930298</v>
+        <v>0.2087913304567337</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.2131671160459518</v>
+        <v>0.2074280679225922</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.2166627198457718</v>
+        <v>0.2073647826910019</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.2192301154136658</v>
+        <v>0.2068912833929062</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.2779554128646851</v>
+        <v>0.2763236165046692</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.2693461179733276</v>
+        <v>0.2639904320240021</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.2659846246242523</v>
+        <v>0.2637548744678497</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.2581312954425812</v>
+        <v>0.2540511786937714</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.2567213475704193</v>
+        <v>0.2519614994525909</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.2490708976984024</v>
+        <v>0.243233859539032</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.2472000420093536</v>
+        <v>0.2401649951934814</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.2438004016876221</v>
+        <v>0.2362091839313507</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.241879791021347</v>
+        <v>0.2344082891941071</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.2392145991325378</v>
+        <v>0.2323044836521149</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.2267155200242996</v>
+        <v>0.2166963517665863</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.2298923432826996</v>
+        <v>0.2183587551116943</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.2300745844841003</v>
+        <v>0.2179193049669266</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.2323655188083649</v>
+        <v>0.2190180867910385</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.2881424427032471</v>
+        <v>0.2816827893257141</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.2824088633060455</v>
+        <v>0.27398881316185</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.2772702872753143</v>
+        <v>0.2682853937149048</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.2694441676139832</v>
+        <v>0.2610172033309937</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.2730766236782074</v>
+        <v>0.263250857591629</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.2615880370140076</v>
+        <v>0.2521826922893524</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.2617800831794739</v>
+        <v>0.2520962059497833</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.2541919052600861</v>
+        <v>0.2418801784515381</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.2573845982551575</v>
+        <v>0.2467679679393768</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.2559328377246857</v>
+        <v>0.2451987713575363</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.2517372965812683</v>
+        <v>0.2396488934755325</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.2515258491039276</v>
+        <v>0.2393075078725815</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.2505933046340942</v>
+        <v>0.2377106845378876</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.2626318335533142</v>
+        <v>0.2476438879966736</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.2891144454479218</v>
+        <v>0.2781252861022949</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.2905202507972717</v>
+        <v>0.2779183685779572</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.2789569497108459</v>
+        <v>0.268791675567627</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.2816613614559174</v>
+        <v>0.2693759799003601</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.271349161863327</v>
+        <v>0.2577342689037323</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.2723091244697571</v>
+        <v>0.2596153914928436</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.2726093232631683</v>
+        <v>0.2592593729496002</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.2691279053688049</v>
+        <v>0.2556068003177643</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.2648418247699738</v>
+        <v>0.2512333691120148</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.263086199760437</v>
+        <v>0.250508189201355</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.2657171785831451</v>
+        <v>0.2507997751235962</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.2665038406848907</v>
+        <v>0.2509753108024597</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.2757076919078827</v>
+        <v>0.2587175667285919</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.2864733338356018</v>
+        <v>0.2680270671844482</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.2932983934879303</v>
+        <v>0.277086615562439</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.2937629520893097</v>
+        <v>0.2776454389095306</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.2857871055603027</v>
+        <v>0.2700110375881195</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.2830507755279541</v>
+        <v>0.2669208347797394</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.2895501255989075</v>
+        <v>0.2737228870391846</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.2860370576381683</v>
+        <v>0.2702330946922302</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.2861540913581848</v>
+        <v>0.2708593904972076</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.2846816778182983</v>
+        <v>0.2675631940364838</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.2865711748600006</v>
+        <v>0.2687676846981049</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.2862525284290314</v>
+        <v>0.2699488699436188</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.2845167815685272</v>
+        <v>0.2666668295860291</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.2945913970470428</v>
+        <v>0.2744987905025482</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.2989521324634552</v>
+        <v>0.2783398628234863</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.3153875172138214</v>
+        <v>0.2941065728664398</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.3106968104839325</v>
+        <v>0.2924981415271759</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.3111526072025299</v>
+        <v>0.292649894952774</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.3123959600925446</v>
+        <v>0.293111115694046</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.3128808736801147</v>
+        <v>0.2935689091682434</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.3100444674491882</v>
+        <v>0.2909200489521027</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.3077557682991028</v>
+        <v>0.2895462214946747</v>
       </c>
       <c r="GH7" t="n">
-        <v>0.3055775165557861</v>
+        <v>0.2858344912528992</v>
       </c>
       <c r="GI7" t="n">
-        <v>0.3050175607204437</v>
+        <v>0.2822053134441376</v>
       </c>
       <c r="GJ7" t="n">
-        <v>0.3067559897899628</v>
+        <v>0.2850060164928436</v>
       </c>
       <c r="GK7" t="n">
-        <v>0.3093187510967255</v>
+        <v>0.2866854965686798</v>
       </c>
       <c r="GL7" t="n">
-        <v>0.3145416975021362</v>
+        <v>0.2915026843547821</v>
       </c>
       <c r="GM7" t="n">
-        <v>0.321414440870285</v>
+        <v>0.2960156798362732</v>
       </c>
       <c r="GN7" t="n">
-        <v>0.3373761773109436</v>
+        <v>0.311639130115509</v>
       </c>
       <c r="GO7" t="n">
-        <v>0.3447076082229614</v>
+        <v>0.3185395300388336</v>
       </c>
       <c r="GP7" t="n">
-        <v>0.3385381698608398</v>
+        <v>0.3163222074508667</v>
       </c>
       <c r="GQ7" t="n">
-        <v>0.3353694379329681</v>
+        <v>0.3103107511997223</v>
       </c>
       <c r="GR7" t="n">
-        <v>0.3336122632026672</v>
+        <v>0.3119929432868958</v>
       </c>
       <c r="GS7" t="n">
-        <v>0.3320781588554382</v>
+        <v>0.3090310394763947</v>
       </c>
       <c r="GT7" t="n">
-        <v>0.3340446352958679</v>
+        <v>0.3104744851589203</v>
       </c>
       <c r="GU7" t="n">
-        <v>0.3285223245620728</v>
+        <v>0.3030876517295837</v>
       </c>
       <c r="GV7" t="n">
-        <v>0.3333721160888672</v>
+        <v>0.3081324994564056</v>
       </c>
       <c r="GW7" t="n">
-        <v>0.3284939527511597</v>
+        <v>0.3030890226364136</v>
       </c>
       <c r="GX7" t="n">
-        <v>0.3305929005146027</v>
+        <v>0.3021994531154633</v>
       </c>
       <c r="GY7" t="n">
-        <v>0.3296855688095093</v>
+        <v>0.3010987341403961</v>
       </c>
       <c r="GZ7" t="n">
-        <v>0.3442371189594269</v>
+        <v>0.3152866959571838</v>
       </c>
       <c r="HA7" t="n">
-        <v>0.3538064956665039</v>
+        <v>0.3290348947048187</v>
       </c>
       <c r="HB7" t="n">
-        <v>0.3691424131393433</v>
+        <v>0.338349461555481</v>
       </c>
       <c r="HC7" t="n">
-        <v>0.3614892661571503</v>
+        <v>0.3360108137130737</v>
       </c>
       <c r="HD7" t="n">
-        <v>0.3527867794036865</v>
+        <v>0.3156929910182953</v>
       </c>
       <c r="HE7" t="n">
-        <v>0.3465546071529388</v>
+        <v>0.3093050420284271</v>
       </c>
       <c r="HF7" t="n">
-        <v>0.3497838973999023</v>
+        <v>0.3127477169036865</v>
       </c>
       <c r="HG7" t="n">
-        <v>0.3569319546222687</v>
+        <v>0.3205870389938354</v>
       </c>
       <c r="HH7" t="n">
-        <v>0.3550867438316345</v>
+        <v>0.3204611837863922</v>
       </c>
       <c r="HI7" t="n">
-        <v>0.354280948638916</v>
+        <v>0.3155408501625061</v>
       </c>
       <c r="HJ7" t="n">
-        <v>0.3576940298080444</v>
+        <v>0.3211908042430878</v>
       </c>
       <c r="HK7" t="n">
-        <v>0.34890216588974</v>
+        <v>0.3128895461559296</v>
       </c>
       <c r="HL7" t="n">
-        <v>0.3527221083641052</v>
+        <v>0.3131797313690186</v>
       </c>
       <c r="HM7" t="n">
-        <v>0.3487109541893005</v>
+        <v>0.3136871457099915</v>
       </c>
       <c r="HN7" t="n">
-        <v>0.3740183711051941</v>
+        <v>0.3343243002891541</v>
       </c>
       <c r="HO7" t="n">
-        <v>0.3891406953334808</v>
+        <v>0.3477992117404938</v>
       </c>
       <c r="HP7" t="n">
-        <v>0.3647175431251526</v>
+        <v>0.3327811360359192</v>
       </c>
       <c r="HQ7" t="n">
-        <v>0.3515194356441498</v>
+        <v>0.326911449432373</v>
       </c>
     </row>
   </sheetData>
